--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13785" windowHeight="11895"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13785" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fire-authority" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="538">
   <si>
     <t>name</t>
   </si>
@@ -1432,6 +1432,204 @@
   </si>
   <si>
     <t>government-domain?</t>
+  </si>
+  <si>
+    <t>Alfreton Community Fire Station</t>
+  </si>
+  <si>
+    <t>DE55 7AD</t>
+  </si>
+  <si>
+    <t>Ascot Drive Community Fire Station</t>
+  </si>
+  <si>
+    <t>DE24 8GZ</t>
+  </si>
+  <si>
+    <t>Ashbourne Fire Station</t>
+  </si>
+  <si>
+    <t>DE6 1FN</t>
+  </si>
+  <si>
+    <t>Bakewell Fire Station</t>
+  </si>
+  <si>
+    <t>DE45 1DA</t>
+  </si>
+  <si>
+    <t>Belper Fire Station</t>
+  </si>
+  <si>
+    <t>DE56 1BE</t>
+  </si>
+  <si>
+    <t>Bolsover Fire Station</t>
+  </si>
+  <si>
+    <t>S44 6HF</t>
+  </si>
+  <si>
+    <t>Bradwell Fire Station</t>
+  </si>
+  <si>
+    <t>S33 9JG</t>
+  </si>
+  <si>
+    <t>Buxton Fire &amp; Rescue Centre</t>
+  </si>
+  <si>
+    <t>SK17 9RZ</t>
+  </si>
+  <si>
+    <t>Chapel-en-le Frith Fire Station</t>
+  </si>
+  <si>
+    <t>SK23 0LX</t>
+  </si>
+  <si>
+    <t>Chesterfield Community Fire Station</t>
+  </si>
+  <si>
+    <t>S40 2WH</t>
+  </si>
+  <si>
+    <t>Clay Cross Fire Station</t>
+  </si>
+  <si>
+    <t>S45 9JQ</t>
+  </si>
+  <si>
+    <t>Clowne Fire Station</t>
+  </si>
+  <si>
+    <t>S43 4LS</t>
+  </si>
+  <si>
+    <t>Crich Fire Station</t>
+  </si>
+  <si>
+    <t>DE4 5DE</t>
+  </si>
+  <si>
+    <t>Derbyshire Fire &amp; Rescue Service HQ</t>
+  </si>
+  <si>
+    <t>DE23 6EH</t>
+  </si>
+  <si>
+    <t>Dronfield Fire Station</t>
+  </si>
+  <si>
+    <t>S18 1ST</t>
+  </si>
+  <si>
+    <t>Duffield Fire Station</t>
+  </si>
+  <si>
+    <t>DE56 4FQ</t>
+  </si>
+  <si>
+    <t>Glossop Fire Station</t>
+  </si>
+  <si>
+    <t>SK13 8LG</t>
+  </si>
+  <si>
+    <t>Hathersage Fire Station</t>
+  </si>
+  <si>
+    <t>S32 1DU</t>
+  </si>
+  <si>
+    <t>Heanor Fire Station</t>
+  </si>
+  <si>
+    <t>DE75 7DT</t>
+  </si>
+  <si>
+    <t>Ilkeston Community Fire Station</t>
+  </si>
+  <si>
+    <t>DE7 5EZ</t>
+  </si>
+  <si>
+    <t>Kingsway Fire Station</t>
+  </si>
+  <si>
+    <t>DE22 3LY</t>
+  </si>
+  <si>
+    <t>Long Eaton Fire Station</t>
+  </si>
+  <si>
+    <t>NG10 1BD</t>
+  </si>
+  <si>
+    <t>Matlock Fire Station</t>
+  </si>
+  <si>
+    <t>DE4 3DQ</t>
+  </si>
+  <si>
+    <t>Melbourne Fire Station</t>
+  </si>
+  <si>
+    <t>DE73 1DY</t>
+  </si>
+  <si>
+    <t>New Mills Fire Station</t>
+  </si>
+  <si>
+    <t>SK22 4JF</t>
+  </si>
+  <si>
+    <t>Nottingham Road Community Fire Station</t>
+  </si>
+  <si>
+    <t>DE21 6FP</t>
+  </si>
+  <si>
+    <t>Ripley Fire Station</t>
+  </si>
+  <si>
+    <t>DE5 3HR</t>
+  </si>
+  <si>
+    <t>Shirebrook Fire Station</t>
+  </si>
+  <si>
+    <t>NG20 8TY</t>
+  </si>
+  <si>
+    <t>Staveley Fire Station</t>
+  </si>
+  <si>
+    <t>S43 3PG</t>
+  </si>
+  <si>
+    <t>Swadlincote Fire Station</t>
+  </si>
+  <si>
+    <t>DE11 0AE</t>
+  </si>
+  <si>
+    <t>Whaley Bridge Fire Station</t>
+  </si>
+  <si>
+    <t>SK23 7HP</t>
+  </si>
+  <si>
+    <t>Wirksworth Fire Station</t>
+  </si>
+  <si>
+    <t>DE4 4FG</t>
+  </si>
+  <si>
+    <t>day staffing</t>
+  </si>
+  <si>
+    <t>Day staffing</t>
   </si>
 </sst>
 </file>
@@ -1819,9 +2017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,11 +2596,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,6 +5664,646 @@
         <v>13</v>
       </c>
     </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>472</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D172">
+        <v>54960</v>
+      </c>
+      <c r="E172" t="s">
+        <v>44</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>474</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D173">
+        <v>54090</v>
+      </c>
+      <c r="E173" t="s">
+        <v>44</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>476</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D174">
+        <v>54290</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D175">
+        <v>54170</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>480</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D176">
+        <v>54260</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>482</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D177">
+        <v>54200</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>484</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D178">
+        <v>54150</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D179">
+        <v>54030</v>
+      </c>
+      <c r="E179" t="s">
+        <v>44</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>488</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D180">
+        <v>54130</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D181">
+        <v>54050</v>
+      </c>
+      <c r="E181" t="s">
+        <v>44</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>492</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D182">
+        <v>54240</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>494</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D183">
+        <v>54210</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>496</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D184">
+        <v>54250</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>498</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D185">
+        <v>54000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>44</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>500</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D186">
+        <v>54190</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>502</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D187">
+        <v>54300</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>504</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D188">
+        <v>54010</v>
+      </c>
+      <c r="E188" t="s">
+        <v>537</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>506</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D189">
+        <v>54160</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>508</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D190">
+        <v>54270</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>510</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D191">
+        <v>54100</v>
+      </c>
+      <c r="E191" t="s">
+        <v>44</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>512</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D192">
+        <v>54070</v>
+      </c>
+      <c r="E192" t="s">
+        <v>44</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D193">
+        <v>54110</v>
+      </c>
+      <c r="E193" t="s">
+        <v>44</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>516</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D194">
+        <v>54040</v>
+      </c>
+      <c r="E194" t="s">
+        <v>537</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>518</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D195">
+        <v>54310</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D196">
+        <v>54020</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>522</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D197">
+        <v>54080</v>
+      </c>
+      <c r="E197" t="s">
+        <v>44</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>524</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D198">
+        <v>54280</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>526</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D199">
+        <v>54220</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>528</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D200">
+        <v>54231</v>
+      </c>
+      <c r="E200" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>530</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D201">
+        <v>54120</v>
+      </c>
+      <c r="E201" t="s">
+        <v>44</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>532</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D202">
+        <v>54140</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>534</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D203">
+        <v>54180</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5473,10 +6311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,11 +6368,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>536</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="699">
   <si>
     <t>name</t>
   </si>
@@ -1630,6 +1630,489 @@
   </si>
   <si>
     <t>Day staffing</t>
+  </si>
+  <si>
+    <t>Station 85 Saffron Walden</t>
+  </si>
+  <si>
+    <t>CB10 1EH</t>
+  </si>
+  <si>
+    <t>Station 84 Newport</t>
+  </si>
+  <si>
+    <t>CB11 3RU</t>
+  </si>
+  <si>
+    <t>Station 83 Stansted</t>
+  </si>
+  <si>
+    <t>CM24 8AE</t>
+  </si>
+  <si>
+    <t>Station 82 Old Harlow</t>
+  </si>
+  <si>
+    <t>CM17 0DR</t>
+  </si>
+  <si>
+    <t>On-call</t>
+  </si>
+  <si>
+    <t>on-call</t>
+  </si>
+  <si>
+    <t>Station 70 Harlow Central</t>
+  </si>
+  <si>
+    <t>CM20 1DU</t>
+  </si>
+  <si>
+    <t>Station 89 Epping</t>
+  </si>
+  <si>
+    <t>CM16 4AF</t>
+  </si>
+  <si>
+    <t>Station 73 Waltham Abbey</t>
+  </si>
+  <si>
+    <t>EN9 1PA</t>
+  </si>
+  <si>
+    <t>Station 72 Loughton</t>
+  </si>
+  <si>
+    <t>IG10 4PE</t>
+  </si>
+  <si>
+    <t>Station 86 Thaxted</t>
+  </si>
+  <si>
+    <t>CM6 2LP</t>
+  </si>
+  <si>
+    <t>Station 87 Dunmow</t>
+  </si>
+  <si>
+    <t>CM6 1DA</t>
+  </si>
+  <si>
+    <t>Station 88 Leaden Roding</t>
+  </si>
+  <si>
+    <t>CM6 1QB</t>
+  </si>
+  <si>
+    <t>Station 71 Ongar</t>
+  </si>
+  <si>
+    <t>CM5 9DT</t>
+  </si>
+  <si>
+    <t>Station 51 Brentwood</t>
+  </si>
+  <si>
+    <t>CM14 4UZ</t>
+  </si>
+  <si>
+    <t>Station 50 Grays</t>
+  </si>
+  <si>
+    <t>RM17 5QS</t>
+  </si>
+  <si>
+    <t>Station 67 Ingatestone</t>
+  </si>
+  <si>
+    <t>CM4 9EY</t>
+  </si>
+  <si>
+    <t>Station 55 Orsett</t>
+  </si>
+  <si>
+    <t>RM16 3DU</t>
+  </si>
+  <si>
+    <t>Station 68 Billericay</t>
+  </si>
+  <si>
+    <t>CM12 9LL</t>
+  </si>
+  <si>
+    <t>Station 52 Basildon</t>
+  </si>
+  <si>
+    <t>SS14 1EH</t>
+  </si>
+  <si>
+    <t>Station 66 Corringham</t>
+  </si>
+  <si>
+    <t>SS17 9BN</t>
+  </si>
+  <si>
+    <t>Station 34 Chelmsford</t>
+  </si>
+  <si>
+    <t>CM1 2QS</t>
+  </si>
+  <si>
+    <t>Station 33 Great Baddow</t>
+  </si>
+  <si>
+    <t>CM2 7EZ</t>
+  </si>
+  <si>
+    <t>Wholetime; on-call</t>
+  </si>
+  <si>
+    <t>Station 69 Wickford</t>
+  </si>
+  <si>
+    <t>SS12 0QG</t>
+  </si>
+  <si>
+    <t>Station 32 South Woodham Ferrers</t>
+  </si>
+  <si>
+    <t>CM3 5XH</t>
+  </si>
+  <si>
+    <t>Station 35 Rayleigh Weir</t>
+  </si>
+  <si>
+    <t>SS7 3TR</t>
+  </si>
+  <si>
+    <t>Station 54 Canvey</t>
+  </si>
+  <si>
+    <t>SS8 0JD</t>
+  </si>
+  <si>
+    <t>Station 47 Hawkwell</t>
+  </si>
+  <si>
+    <t>SS5 4EG</t>
+  </si>
+  <si>
+    <t>Station 31 Leigh</t>
+  </si>
+  <si>
+    <t>SS9 4AA</t>
+  </si>
+  <si>
+    <t>Station 49 Rochford</t>
+  </si>
+  <si>
+    <t>SS4 1BL</t>
+  </si>
+  <si>
+    <t>Station 30 Southend</t>
+  </si>
+  <si>
+    <t>SS2 5PX</t>
+  </si>
+  <si>
+    <t>Station 42 Shoeburyness</t>
+  </si>
+  <si>
+    <t>SS3 9AR</t>
+  </si>
+  <si>
+    <t>Station 43 Burnham-on-Crouch</t>
+  </si>
+  <si>
+    <t>CM0 8DZ</t>
+  </si>
+  <si>
+    <t>Station 46 Maldon</t>
+  </si>
+  <si>
+    <t>CM9 6SH</t>
+  </si>
+  <si>
+    <t>Station 44 Tillingham</t>
+  </si>
+  <si>
+    <t>CM0 7SQ</t>
+  </si>
+  <si>
+    <t>Station 45 Tollesbury</t>
+  </si>
+  <si>
+    <t>CM9 8RG</t>
+  </si>
+  <si>
+    <t>Station 22 West Mersea</t>
+  </si>
+  <si>
+    <t>CO5 8QT</t>
+  </si>
+  <si>
+    <t>Station 20 Brightlingsea</t>
+  </si>
+  <si>
+    <t>CO7 0BP</t>
+  </si>
+  <si>
+    <t>Station 12 Clacton</t>
+  </si>
+  <si>
+    <t>CO16 8DB</t>
+  </si>
+  <si>
+    <t>Station 19 Weeley</t>
+  </si>
+  <si>
+    <t>CO16 9ED</t>
+  </si>
+  <si>
+    <t>Station 25 Witham</t>
+  </si>
+  <si>
+    <t>CM8 1EW</t>
+  </si>
+  <si>
+    <t>Station 23 Tiptree</t>
+  </si>
+  <si>
+    <t>CO5 0SU</t>
+  </si>
+  <si>
+    <t>Station 24 Coggeshal</t>
+  </si>
+  <si>
+    <t>CO6 1SX</t>
+  </si>
+  <si>
+    <t>Station 10 Colchester</t>
+  </si>
+  <si>
+    <t>CO1 1XT</t>
+  </si>
+  <si>
+    <t>Station 21 Wivenhoe</t>
+  </si>
+  <si>
+    <t>CO7 9EU</t>
+  </si>
+  <si>
+    <t>Station 17 Manningtree</t>
+  </si>
+  <si>
+    <t>CO11 1AU</t>
+  </si>
+  <si>
+    <t>Station 11 Dovercourt</t>
+  </si>
+  <si>
+    <t>CO12 4JE</t>
+  </si>
+  <si>
+    <t>Station 78 Braintree</t>
+  </si>
+  <si>
+    <t>CM7 3JD</t>
+  </si>
+  <si>
+    <t>Station 81 Halstead</t>
+  </si>
+  <si>
+    <t>CO9 1EZ</t>
+  </si>
+  <si>
+    <t>Station 80 Sible Hedingham</t>
+  </si>
+  <si>
+    <t>CO9 3NU</t>
+  </si>
+  <si>
+    <t>Station 79 Wethersfield</t>
+  </si>
+  <si>
+    <t>CM7 4BN</t>
+  </si>
+  <si>
+    <t>Station 18 Frinton</t>
+  </si>
+  <si>
+    <t>CO13 9NG</t>
+  </si>
+  <si>
+    <t>Baldock and Letchworth Fire Station</t>
+  </si>
+  <si>
+    <t>Berkhamsted Fire Station</t>
+  </si>
+  <si>
+    <t>Bishops Stortford Fire Station</t>
+  </si>
+  <si>
+    <t>Borehamwood Fire Station</t>
+  </si>
+  <si>
+    <t>Buntingford Fire Station</t>
+  </si>
+  <si>
+    <t>Cheshunt Fire Station</t>
+  </si>
+  <si>
+    <t>Garston Fire Station</t>
+  </si>
+  <si>
+    <t>Harpenden Fire Station</t>
+  </si>
+  <si>
+    <t>Hatfield Fire Station</t>
+  </si>
+  <si>
+    <t>Hemel Hempstead Fire Station</t>
+  </si>
+  <si>
+    <t>Hertford Fire Station</t>
+  </si>
+  <si>
+    <t>Hitchin Fire Station</t>
+  </si>
+  <si>
+    <t>Hoddesdon Fire Station</t>
+  </si>
+  <si>
+    <t>Kings Langley Fire Station</t>
+  </si>
+  <si>
+    <t>Markyate Fire Station</t>
+  </si>
+  <si>
+    <t>Much Hadham Fire Station</t>
+  </si>
+  <si>
+    <t>Potters Bar Fire Station</t>
+  </si>
+  <si>
+    <t>Redbourn Fire Station</t>
+  </si>
+  <si>
+    <t>Rickmansworth Fire Station</t>
+  </si>
+  <si>
+    <t>Royston Fire Station</t>
+  </si>
+  <si>
+    <t>Sawbridgeworth Fire Station</t>
+  </si>
+  <si>
+    <t>St Albans Fire Station</t>
+  </si>
+  <si>
+    <t>Stevenage Fire Station</t>
+  </si>
+  <si>
+    <t>Tring Fire Station</t>
+  </si>
+  <si>
+    <t>Ware Fire Station</t>
+  </si>
+  <si>
+    <t>Watford Fire Station</t>
+  </si>
+  <si>
+    <t>Welwyn Fire Station</t>
+  </si>
+  <si>
+    <t>Welwyn Garden City Fire Station</t>
+  </si>
+  <si>
+    <t>Wheathampstead Fire Station</t>
+  </si>
+  <si>
+    <t>SG7 6EY</t>
+  </si>
+  <si>
+    <t>HP4 2DW</t>
+  </si>
+  <si>
+    <t>CM23 2PY</t>
+  </si>
+  <si>
+    <t>WD6 1JP</t>
+  </si>
+  <si>
+    <t>SG9 9HU</t>
+  </si>
+  <si>
+    <t>EN8 9LT</t>
+  </si>
+  <si>
+    <t>WD24 5RX</t>
+  </si>
+  <si>
+    <t>AL5 2HU</t>
+  </si>
+  <si>
+    <t>AL10 0DA</t>
+  </si>
+  <si>
+    <t>HP2 5HA</t>
+  </si>
+  <si>
+    <t>SG13 7LD</t>
+  </si>
+  <si>
+    <t>SG4 9JR</t>
+  </si>
+  <si>
+    <t>EN11 8JW</t>
+  </si>
+  <si>
+    <t>WD4 8BP</t>
+  </si>
+  <si>
+    <t>AL3 8LF</t>
+  </si>
+  <si>
+    <t>Wholetime &amp; on-call</t>
+  </si>
+  <si>
+    <t>SG10 6DF</t>
+  </si>
+  <si>
+    <t>EN6 2HF</t>
+  </si>
+  <si>
+    <t>WD3 1FJ</t>
+  </si>
+  <si>
+    <t>SG8 5BD</t>
+  </si>
+  <si>
+    <t>CM21 9AY</t>
+  </si>
+  <si>
+    <t>AL1 1TQ</t>
+  </si>
+  <si>
+    <t>SG1 1HS</t>
+  </si>
+  <si>
+    <t>HP23 5ED</t>
+  </si>
+  <si>
+    <t>SG12 9DR</t>
+  </si>
+  <si>
+    <t>WD17 2AG</t>
+  </si>
+  <si>
+    <t>AL6 9EP</t>
+  </si>
+  <si>
+    <t>AL4 8AY</t>
+  </si>
+  <si>
+    <t>AL7 1LP</t>
   </si>
 </sst>
 </file>
@@ -2017,9 +2500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection activeCell="B249" sqref="B249"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,11 +3080,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R203"/>
+  <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="G282" sqref="G254:G282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,17 +6789,1295 @@
         <v>3</v>
       </c>
     </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>538</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E204" t="s">
+        <v>546</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>540</v>
+      </c>
+      <c r="C205" t="s">
+        <v>541</v>
+      </c>
+      <c r="E205" t="s">
+        <v>546</v>
+      </c>
+      <c r="G205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>542</v>
+      </c>
+      <c r="C206" t="s">
+        <v>543</v>
+      </c>
+      <c r="G206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>544</v>
+      </c>
+      <c r="C207" t="s">
+        <v>545</v>
+      </c>
+      <c r="E207" t="s">
+        <v>546</v>
+      </c>
+      <c r="G207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>548</v>
+      </c>
+      <c r="C208" t="s">
+        <v>549</v>
+      </c>
+      <c r="E208" t="s">
+        <v>44</v>
+      </c>
+      <c r="G208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>550</v>
+      </c>
+      <c r="C209" t="s">
+        <v>551</v>
+      </c>
+      <c r="G209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>552</v>
+      </c>
+      <c r="C210" t="s">
+        <v>553</v>
+      </c>
+      <c r="E210" t="s">
+        <v>537</v>
+      </c>
+      <c r="G210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>554</v>
+      </c>
+      <c r="C211" t="s">
+        <v>555</v>
+      </c>
+      <c r="E211" t="s">
+        <v>44</v>
+      </c>
+      <c r="G211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>556</v>
+      </c>
+      <c r="C212" t="s">
+        <v>557</v>
+      </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>558</v>
+      </c>
+      <c r="C213" t="s">
+        <v>559</v>
+      </c>
+      <c r="G213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>560</v>
+      </c>
+      <c r="C214" t="s">
+        <v>561</v>
+      </c>
+      <c r="G214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>562</v>
+      </c>
+      <c r="C215" t="s">
+        <v>563</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>564</v>
+      </c>
+      <c r="C216" t="s">
+        <v>565</v>
+      </c>
+      <c r="E216" t="s">
+        <v>582</v>
+      </c>
+      <c r="G216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>566</v>
+      </c>
+      <c r="C217" t="s">
+        <v>567</v>
+      </c>
+      <c r="E217" t="s">
+        <v>44</v>
+      </c>
+      <c r="G217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>568</v>
+      </c>
+      <c r="C218" t="s">
+        <v>569</v>
+      </c>
+      <c r="G218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>570</v>
+      </c>
+      <c r="C219" t="s">
+        <v>571</v>
+      </c>
+      <c r="E219" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>572</v>
+      </c>
+      <c r="C220" t="s">
+        <v>573</v>
+      </c>
+      <c r="E220" t="s">
+        <v>546</v>
+      </c>
+      <c r="G220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>574</v>
+      </c>
+      <c r="C221" t="s">
+        <v>575</v>
+      </c>
+      <c r="E221" t="s">
+        <v>44</v>
+      </c>
+      <c r="G221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>576</v>
+      </c>
+      <c r="C222" t="s">
+        <v>577</v>
+      </c>
+      <c r="G222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>578</v>
+      </c>
+      <c r="C223" t="s">
+        <v>579</v>
+      </c>
+      <c r="E223" t="s">
+        <v>44</v>
+      </c>
+      <c r="G223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>580</v>
+      </c>
+      <c r="C224" t="s">
+        <v>581</v>
+      </c>
+      <c r="E224" t="s">
+        <v>537</v>
+      </c>
+      <c r="G224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>583</v>
+      </c>
+      <c r="C225" t="s">
+        <v>584</v>
+      </c>
+      <c r="G225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>585</v>
+      </c>
+      <c r="C226" t="s">
+        <v>586</v>
+      </c>
+      <c r="E226" t="s">
+        <v>537</v>
+      </c>
+      <c r="G226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>587</v>
+      </c>
+      <c r="C227" t="s">
+        <v>588</v>
+      </c>
+      <c r="E227" t="s">
+        <v>44</v>
+      </c>
+      <c r="G227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>589</v>
+      </c>
+      <c r="C228" t="s">
+        <v>590</v>
+      </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>591</v>
+      </c>
+      <c r="C229" t="s">
+        <v>592</v>
+      </c>
+      <c r="E229" t="s">
+        <v>546</v>
+      </c>
+      <c r="G229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>593</v>
+      </c>
+      <c r="C230" t="s">
+        <v>594</v>
+      </c>
+      <c r="E230" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>595</v>
+      </c>
+      <c r="C231" t="s">
+        <v>596</v>
+      </c>
+      <c r="E231" t="s">
+        <v>546</v>
+      </c>
+      <c r="G231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>597</v>
+      </c>
+      <c r="C232" t="s">
+        <v>598</v>
+      </c>
+      <c r="E232" t="s">
+        <v>44</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>599</v>
+      </c>
+      <c r="C233" t="s">
+        <v>600</v>
+      </c>
+      <c r="G233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>601</v>
+      </c>
+      <c r="C234" t="s">
+        <v>602</v>
+      </c>
+      <c r="G234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>603</v>
+      </c>
+      <c r="C235" t="s">
+        <v>604</v>
+      </c>
+      <c r="G235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>605</v>
+      </c>
+      <c r="C236" t="s">
+        <v>606</v>
+      </c>
+      <c r="G236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>607</v>
+      </c>
+      <c r="C237" t="s">
+        <v>608</v>
+      </c>
+      <c r="G237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>609</v>
+      </c>
+      <c r="C238" t="s">
+        <v>610</v>
+      </c>
+      <c r="E238" t="s">
+        <v>546</v>
+      </c>
+      <c r="G238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>611</v>
+      </c>
+      <c r="C239" t="s">
+        <v>612</v>
+      </c>
+      <c r="E239" t="s">
+        <v>546</v>
+      </c>
+      <c r="G239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>613</v>
+      </c>
+      <c r="C240" t="s">
+        <v>614</v>
+      </c>
+      <c r="G240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>615</v>
+      </c>
+      <c r="C241" t="s">
+        <v>616</v>
+      </c>
+      <c r="E241" t="s">
+        <v>546</v>
+      </c>
+      <c r="G241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>617</v>
+      </c>
+      <c r="C242" t="s">
+        <v>618</v>
+      </c>
+      <c r="G242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>619</v>
+      </c>
+      <c r="C243" t="s">
+        <v>620</v>
+      </c>
+      <c r="G243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>621</v>
+      </c>
+      <c r="C244" t="s">
+        <v>622</v>
+      </c>
+      <c r="G244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>623</v>
+      </c>
+      <c r="C245" t="s">
+        <v>624</v>
+      </c>
+      <c r="E245" t="s">
+        <v>44</v>
+      </c>
+      <c r="G245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>625</v>
+      </c>
+      <c r="C246" t="s">
+        <v>626</v>
+      </c>
+      <c r="E246" t="s">
+        <v>546</v>
+      </c>
+      <c r="G246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>627</v>
+      </c>
+      <c r="C247" t="s">
+        <v>628</v>
+      </c>
+      <c r="E247" t="s">
+        <v>546</v>
+      </c>
+      <c r="G247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>629</v>
+      </c>
+      <c r="C248" t="s">
+        <v>630</v>
+      </c>
+      <c r="E248" t="s">
+        <v>537</v>
+      </c>
+      <c r="G248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>631</v>
+      </c>
+      <c r="C249" t="s">
+        <v>632</v>
+      </c>
+      <c r="E249" t="s">
+        <v>546</v>
+      </c>
+      <c r="G249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>633</v>
+      </c>
+      <c r="C250" t="s">
+        <v>634</v>
+      </c>
+      <c r="G250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>635</v>
+      </c>
+      <c r="C251" t="s">
+        <v>636</v>
+      </c>
+      <c r="G251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>637</v>
+      </c>
+      <c r="C252" t="s">
+        <v>638</v>
+      </c>
+      <c r="G252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>639</v>
+      </c>
+      <c r="C253" t="s">
+        <v>640</v>
+      </c>
+      <c r="E253" t="s">
+        <v>546</v>
+      </c>
+      <c r="G253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>641</v>
+      </c>
+      <c r="C254" t="s">
+        <v>670</v>
+      </c>
+      <c r="E254" t="s">
+        <v>685</v>
+      </c>
+      <c r="G254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>642</v>
+      </c>
+      <c r="C255" t="s">
+        <v>671</v>
+      </c>
+      <c r="E255" t="s">
+        <v>547</v>
+      </c>
+      <c r="G255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>643</v>
+      </c>
+      <c r="C256" t="s">
+        <v>672</v>
+      </c>
+      <c r="E256" t="s">
+        <v>685</v>
+      </c>
+      <c r="G256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>644</v>
+      </c>
+      <c r="C257" t="s">
+        <v>673</v>
+      </c>
+      <c r="E257" t="s">
+        <v>44</v>
+      </c>
+      <c r="G257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>645</v>
+      </c>
+      <c r="C258" t="s">
+        <v>674</v>
+      </c>
+      <c r="E258" t="s">
+        <v>547</v>
+      </c>
+      <c r="G258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>646</v>
+      </c>
+      <c r="C259" t="s">
+        <v>675</v>
+      </c>
+      <c r="E259" t="s">
+        <v>685</v>
+      </c>
+      <c r="G259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>647</v>
+      </c>
+      <c r="C260" t="s">
+        <v>676</v>
+      </c>
+      <c r="E260" t="s">
+        <v>44</v>
+      </c>
+      <c r="G260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>648</v>
+      </c>
+      <c r="C261" t="s">
+        <v>677</v>
+      </c>
+      <c r="E261" t="s">
+        <v>547</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>649</v>
+      </c>
+      <c r="C262" t="s">
+        <v>678</v>
+      </c>
+      <c r="E262" t="s">
+        <v>685</v>
+      </c>
+      <c r="G262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>650</v>
+      </c>
+      <c r="C263" t="s">
+        <v>679</v>
+      </c>
+      <c r="E263" t="s">
+        <v>44</v>
+      </c>
+      <c r="G263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>651</v>
+      </c>
+      <c r="C264" t="s">
+        <v>680</v>
+      </c>
+      <c r="E264" t="s">
+        <v>685</v>
+      </c>
+      <c r="G264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>652</v>
+      </c>
+      <c r="C265" t="s">
+        <v>681</v>
+      </c>
+      <c r="E265" t="s">
+        <v>685</v>
+      </c>
+      <c r="G265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>653</v>
+      </c>
+      <c r="C266" t="s">
+        <v>682</v>
+      </c>
+      <c r="E266" t="s">
+        <v>547</v>
+      </c>
+      <c r="G266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>654</v>
+      </c>
+      <c r="C267" t="s">
+        <v>683</v>
+      </c>
+      <c r="E267" t="s">
+        <v>547</v>
+      </c>
+      <c r="G267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>655</v>
+      </c>
+      <c r="C268" t="s">
+        <v>684</v>
+      </c>
+      <c r="E268" t="s">
+        <v>547</v>
+      </c>
+      <c r="G268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>656</v>
+      </c>
+      <c r="C269" t="s">
+        <v>686</v>
+      </c>
+      <c r="E269" t="s">
+        <v>547</v>
+      </c>
+      <c r="G269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>657</v>
+      </c>
+      <c r="C270" t="s">
+        <v>687</v>
+      </c>
+      <c r="E270" t="s">
+        <v>685</v>
+      </c>
+      <c r="G270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>658</v>
+      </c>
+      <c r="C271" t="s">
+        <v>687</v>
+      </c>
+      <c r="E271" t="s">
+        <v>547</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>659</v>
+      </c>
+      <c r="C272" t="s">
+        <v>688</v>
+      </c>
+      <c r="E272" t="s">
+        <v>44</v>
+      </c>
+      <c r="G272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>660</v>
+      </c>
+      <c r="C273" t="s">
+        <v>689</v>
+      </c>
+      <c r="E273" t="s">
+        <v>44</v>
+      </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>661</v>
+      </c>
+      <c r="C274" t="s">
+        <v>690</v>
+      </c>
+      <c r="E274" t="s">
+        <v>547</v>
+      </c>
+      <c r="G274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>662</v>
+      </c>
+      <c r="C275" t="s">
+        <v>691</v>
+      </c>
+      <c r="E275" t="s">
+        <v>44</v>
+      </c>
+      <c r="G275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>663</v>
+      </c>
+      <c r="C276" t="s">
+        <v>692</v>
+      </c>
+      <c r="E276" t="s">
+        <v>44</v>
+      </c>
+      <c r="G276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>664</v>
+      </c>
+      <c r="C277" t="s">
+        <v>693</v>
+      </c>
+      <c r="E277" t="s">
+        <v>547</v>
+      </c>
+      <c r="G277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>665</v>
+      </c>
+      <c r="C278" t="s">
+        <v>694</v>
+      </c>
+      <c r="E278" t="s">
+        <v>547</v>
+      </c>
+      <c r="G278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>666</v>
+      </c>
+      <c r="C279" t="s">
+        <v>695</v>
+      </c>
+      <c r="E279" t="s">
+        <v>44</v>
+      </c>
+      <c r="G279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>667</v>
+      </c>
+      <c r="C280" t="s">
+        <v>696</v>
+      </c>
+      <c r="E280" t="s">
+        <v>547</v>
+      </c>
+      <c r="G280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>668</v>
+      </c>
+      <c r="C281" t="s">
+        <v>698</v>
+      </c>
+      <c r="E281" t="s">
+        <v>685</v>
+      </c>
+      <c r="G281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>669</v>
+      </c>
+      <c r="C282" t="s">
+        <v>697</v>
+      </c>
+      <c r="E282" t="s">
+        <v>547</v>
+      </c>
+      <c r="G282">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,11 +8145,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>547</v>
+      </c>
       <c r="G5" t="s">
         <v>536</v>
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="814">
   <si>
     <t>name</t>
   </si>
@@ -2113,6 +2113,351 @@
   </si>
   <si>
     <t>AL7 1LP</t>
+  </si>
+  <si>
+    <t>Aldington Fire Station</t>
+  </si>
+  <si>
+    <t>TN25 7DJ</t>
+  </si>
+  <si>
+    <t>Ash-cum-Ridley Fire Station</t>
+  </si>
+  <si>
+    <t>TN15 7BF</t>
+  </si>
+  <si>
+    <t>Ashford Fire Station</t>
+  </si>
+  <si>
+    <t>TN24 8YF</t>
+  </si>
+  <si>
+    <t>Aylesham Fire Station</t>
+  </si>
+  <si>
+    <t>CT3 3DU</t>
+  </si>
+  <si>
+    <t>Borough Green Fire Station</t>
+  </si>
+  <si>
+    <t>TN15 8AQ</t>
+  </si>
+  <si>
+    <t>Canterbury Fire Station</t>
+  </si>
+  <si>
+    <t>CT1 2NH</t>
+  </si>
+  <si>
+    <t>Channel Tunnel Emergency Centre</t>
+  </si>
+  <si>
+    <t>Withheld</t>
+  </si>
+  <si>
+    <t>Charing Fire Station</t>
+  </si>
+  <si>
+    <t>TN27 0JN</t>
+  </si>
+  <si>
+    <t>Chilham Fire Station</t>
+  </si>
+  <si>
+    <t>CT4 8BZ</t>
+  </si>
+  <si>
+    <t>Cliffe Fire Station</t>
+  </si>
+  <si>
+    <t>Cranbrook Fire Station</t>
+  </si>
+  <si>
+    <t>TN17 3EN</t>
+  </si>
+  <si>
+    <t>Dartford Fire Station</t>
+  </si>
+  <si>
+    <t>DA2 6EG</t>
+  </si>
+  <si>
+    <t>Deal Fire Station</t>
+  </si>
+  <si>
+    <t>CT14 9TB</t>
+  </si>
+  <si>
+    <t>Dover Fire Station</t>
+  </si>
+  <si>
+    <t>CT16 1DG</t>
+  </si>
+  <si>
+    <t>Dymchurch Fire Station</t>
+  </si>
+  <si>
+    <t>TN29 0NY</t>
+  </si>
+  <si>
+    <t>Eastchurch Fire Station</t>
+  </si>
+  <si>
+    <t>ME12 4DH</t>
+  </si>
+  <si>
+    <t>Eastry Fire Station</t>
+  </si>
+  <si>
+    <t>CT13 0JW</t>
+  </si>
+  <si>
+    <t>Edenbridge Fire Station</t>
+  </si>
+  <si>
+    <t>TN8 5AY</t>
+  </si>
+  <si>
+    <t>Faversham Fire Station</t>
+  </si>
+  <si>
+    <t>ME13 8XL</t>
+  </si>
+  <si>
+    <t>Folkestone Fire Station</t>
+  </si>
+  <si>
+    <t>CT19 5LT</t>
+  </si>
+  <si>
+    <t>Grain Fire Station</t>
+  </si>
+  <si>
+    <t>ME3 0BT</t>
+  </si>
+  <si>
+    <t>Hawkhurst Fire Station</t>
+  </si>
+  <si>
+    <t>TN18 4DS</t>
+  </si>
+  <si>
+    <t>Headcorn Fire Station</t>
+  </si>
+  <si>
+    <t>TN27 9SA</t>
+  </si>
+  <si>
+    <t>Herne Bay Fire Station</t>
+  </si>
+  <si>
+    <t>CT6 5NG</t>
+  </si>
+  <si>
+    <t>Hoo Fire Station</t>
+  </si>
+  <si>
+    <t>ME3 9HL</t>
+  </si>
+  <si>
+    <t>Hythe Fire Station</t>
+  </si>
+  <si>
+    <t>CT21 6HU</t>
+  </si>
+  <si>
+    <t>Larkfield Fire Station</t>
+  </si>
+  <si>
+    <t>ME20 6PP</t>
+  </si>
+  <si>
+    <t>Lenham Fire Station</t>
+  </si>
+  <si>
+    <t>ME17 2QB</t>
+  </si>
+  <si>
+    <t>Lydd Fire Station</t>
+  </si>
+  <si>
+    <t>TN29 9DF</t>
+  </si>
+  <si>
+    <t>Maidstone Fire Station</t>
+  </si>
+  <si>
+    <t>ME15 9QB</t>
+  </si>
+  <si>
+    <t>Marden Fire Station</t>
+  </si>
+  <si>
+    <t>TN12 9QJ</t>
+  </si>
+  <si>
+    <t>Margate Fire Station</t>
+  </si>
+  <si>
+    <t>CT9 1LF</t>
+  </si>
+  <si>
+    <t>Chatham Fire Station</t>
+  </si>
+  <si>
+    <t>ME5 7HQ</t>
+  </si>
+  <si>
+    <t>New Romney Fire Station</t>
+  </si>
+  <si>
+    <t>TN28 8EX</t>
+  </si>
+  <si>
+    <t>Paddock Wood Fire Station</t>
+  </si>
+  <si>
+    <t>TN12 8DF</t>
+  </si>
+  <si>
+    <t>Rainham Fire Station</t>
+  </si>
+  <si>
+    <t>ME8 8ED</t>
+  </si>
+  <si>
+    <t>Ramsgate Fire Station</t>
+  </si>
+  <si>
+    <t>CT11 9AT</t>
+  </si>
+  <si>
+    <t>Rochester Fire Station</t>
+  </si>
+  <si>
+    <t>ME1 2XQ</t>
+  </si>
+  <si>
+    <t>Sandwich Fire Station</t>
+  </si>
+  <si>
+    <t>CT13 9HZ</t>
+  </si>
+  <si>
+    <t>Sevenoaks Fire Station</t>
+  </si>
+  <si>
+    <t>TN13 2HY</t>
+  </si>
+  <si>
+    <t>Sheppey Fire Station</t>
+  </si>
+  <si>
+    <t>ME12 1UN</t>
+  </si>
+  <si>
+    <t>Sittingbourne Fire Station</t>
+  </si>
+  <si>
+    <t>ME10 3DN</t>
+  </si>
+  <si>
+    <t>Southborough Fire Station</t>
+  </si>
+  <si>
+    <t>TN4 0BB</t>
+  </si>
+  <si>
+    <t>Strood Fire Station</t>
+  </si>
+  <si>
+    <t>ME2 3QT</t>
+  </si>
+  <si>
+    <t>Swanley Fire Station</t>
+  </si>
+  <si>
+    <t>BR8 7AE</t>
+  </si>
+  <si>
+    <t>Swanscombe Fire Station</t>
+  </si>
+  <si>
+    <t>DA10 0AD</t>
+  </si>
+  <si>
+    <t>Tenterden Fire Station</t>
+  </si>
+  <si>
+    <t>TN30 6BT</t>
+  </si>
+  <si>
+    <t>Teynham Fire Station</t>
+  </si>
+  <si>
+    <t>ME9 9SN</t>
+  </si>
+  <si>
+    <t>Thames-Side Fire Station</t>
+  </si>
+  <si>
+    <t>DA11 8NT</t>
+  </si>
+  <si>
+    <t>Tonbridge Fire Station</t>
+  </si>
+  <si>
+    <t>TN9 1SW</t>
+  </si>
+  <si>
+    <t>Tunbridge Wells Fire Station</t>
+  </si>
+  <si>
+    <t>TN1 1SD</t>
+  </si>
+  <si>
+    <t>Westerham Fire Station</t>
+  </si>
+  <si>
+    <t>TN16 1TS</t>
+  </si>
+  <si>
+    <t>Westgate Fire Station</t>
+  </si>
+  <si>
+    <t>CT8 8NH</t>
+  </si>
+  <si>
+    <t>Whitfield Fire Station</t>
+  </si>
+  <si>
+    <t>CT16 3LZ</t>
+  </si>
+  <si>
+    <t>Whitstable Fire Station</t>
+  </si>
+  <si>
+    <t>CT5 4NA</t>
+  </si>
+  <si>
+    <t>Wingham Fire Station</t>
+  </si>
+  <si>
+    <t>CT3 1AL</t>
+  </si>
+  <si>
+    <t>Wye Fire Station</t>
+  </si>
+  <si>
+    <t>TN25 5DT</t>
+  </si>
+  <si>
+    <t>Urban Search and Rescue Centre</t>
+  </si>
+  <si>
+    <t>ME3 7QB</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2158,6 +2503,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2176,10 +2526,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2196,10 +2547,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2503,7 +2855,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B249" sqref="B249"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,12 +3432,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R282"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B46" sqref="B46"/>
-      <selection pane="bottomLeft" activeCell="G282" sqref="G254:G282"/>
+      <selection pane="bottomLeft" activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8064,6 +8416,818 @@
       </c>
       <c r="G282">
         <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>699</v>
+      </c>
+      <c r="C283" t="s">
+        <v>700</v>
+      </c>
+      <c r="G283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>701</v>
+      </c>
+      <c r="C284" t="s">
+        <v>702</v>
+      </c>
+      <c r="G284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>703</v>
+      </c>
+      <c r="C285" t="s">
+        <v>704</v>
+      </c>
+      <c r="G285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>705</v>
+      </c>
+      <c r="C286" t="s">
+        <v>706</v>
+      </c>
+      <c r="G286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>707</v>
+      </c>
+      <c r="C287" t="s">
+        <v>708</v>
+      </c>
+      <c r="G287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>709</v>
+      </c>
+      <c r="C288" t="s">
+        <v>710</v>
+      </c>
+      <c r="G288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>711</v>
+      </c>
+      <c r="C289" t="s">
+        <v>712</v>
+      </c>
+      <c r="G289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>713</v>
+      </c>
+      <c r="C290" t="s">
+        <v>714</v>
+      </c>
+      <c r="G290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>715</v>
+      </c>
+      <c r="C291" t="s">
+        <v>716</v>
+      </c>
+      <c r="G291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>717</v>
+      </c>
+      <c r="C292" t="s">
+        <v>813</v>
+      </c>
+      <c r="G292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>718</v>
+      </c>
+      <c r="C293" t="s">
+        <v>719</v>
+      </c>
+      <c r="G293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>720</v>
+      </c>
+      <c r="C294" t="s">
+        <v>721</v>
+      </c>
+      <c r="G294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>722</v>
+      </c>
+      <c r="C295" t="s">
+        <v>723</v>
+      </c>
+      <c r="G295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>724</v>
+      </c>
+      <c r="C296" t="s">
+        <v>725</v>
+      </c>
+      <c r="G296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>726</v>
+      </c>
+      <c r="C297" t="s">
+        <v>727</v>
+      </c>
+      <c r="G297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>728</v>
+      </c>
+      <c r="C298" t="s">
+        <v>729</v>
+      </c>
+      <c r="G298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>730</v>
+      </c>
+      <c r="C299" t="s">
+        <v>731</v>
+      </c>
+      <c r="G299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>732</v>
+      </c>
+      <c r="C300" t="s">
+        <v>733</v>
+      </c>
+      <c r="G300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>734</v>
+      </c>
+      <c r="C301" t="s">
+        <v>735</v>
+      </c>
+      <c r="G301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>736</v>
+      </c>
+      <c r="C302" t="s">
+        <v>737</v>
+      </c>
+      <c r="G302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>738</v>
+      </c>
+      <c r="C303" t="s">
+        <v>739</v>
+      </c>
+      <c r="G303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>740</v>
+      </c>
+      <c r="C304" t="s">
+        <v>741</v>
+      </c>
+      <c r="G304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>742</v>
+      </c>
+      <c r="C305" t="s">
+        <v>743</v>
+      </c>
+      <c r="G305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>744</v>
+      </c>
+      <c r="C306" t="s">
+        <v>745</v>
+      </c>
+      <c r="G306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>746</v>
+      </c>
+      <c r="C307" t="s">
+        <v>747</v>
+      </c>
+      <c r="G307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>748</v>
+      </c>
+      <c r="C308" t="s">
+        <v>749</v>
+      </c>
+      <c r="G308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>750</v>
+      </c>
+      <c r="C309" t="s">
+        <v>751</v>
+      </c>
+      <c r="G309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>752</v>
+      </c>
+      <c r="C310" t="s">
+        <v>753</v>
+      </c>
+      <c r="G310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>754</v>
+      </c>
+      <c r="C311" t="s">
+        <v>755</v>
+      </c>
+      <c r="G311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>756</v>
+      </c>
+      <c r="C312" t="s">
+        <v>757</v>
+      </c>
+      <c r="G312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>758</v>
+      </c>
+      <c r="C313" t="s">
+        <v>759</v>
+      </c>
+      <c r="G313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>760</v>
+      </c>
+      <c r="C314" t="s">
+        <v>761</v>
+      </c>
+      <c r="G314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>762</v>
+      </c>
+      <c r="C315" t="s">
+        <v>763</v>
+      </c>
+      <c r="G315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>764</v>
+      </c>
+      <c r="C316" t="s">
+        <v>765</v>
+      </c>
+      <c r="G316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>766</v>
+      </c>
+      <c r="C317" t="s">
+        <v>767</v>
+      </c>
+      <c r="G317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>768</v>
+      </c>
+      <c r="C318" t="s">
+        <v>769</v>
+      </c>
+      <c r="G318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>770</v>
+      </c>
+      <c r="C319" t="s">
+        <v>771</v>
+      </c>
+      <c r="G319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>772</v>
+      </c>
+      <c r="C320" t="s">
+        <v>773</v>
+      </c>
+      <c r="G320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>774</v>
+      </c>
+      <c r="C321" t="s">
+        <v>775</v>
+      </c>
+      <c r="G321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>776</v>
+      </c>
+      <c r="C322" t="s">
+        <v>777</v>
+      </c>
+      <c r="G322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>778</v>
+      </c>
+      <c r="C323" t="s">
+        <v>779</v>
+      </c>
+      <c r="G323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>780</v>
+      </c>
+      <c r="C324" t="s">
+        <v>781</v>
+      </c>
+      <c r="G324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>782</v>
+      </c>
+      <c r="C325" t="s">
+        <v>783</v>
+      </c>
+      <c r="G325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>784</v>
+      </c>
+      <c r="C326" t="s">
+        <v>785</v>
+      </c>
+      <c r="G326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>786</v>
+      </c>
+      <c r="C327" t="s">
+        <v>787</v>
+      </c>
+      <c r="G327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>788</v>
+      </c>
+      <c r="C328" t="s">
+        <v>789</v>
+      </c>
+      <c r="G328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>790</v>
+      </c>
+      <c r="C329" t="s">
+        <v>791</v>
+      </c>
+      <c r="G329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>792</v>
+      </c>
+      <c r="C330" t="s">
+        <v>793</v>
+      </c>
+      <c r="G330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>794</v>
+      </c>
+      <c r="C331" t="s">
+        <v>795</v>
+      </c>
+      <c r="G331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>796</v>
+      </c>
+      <c r="C332" t="s">
+        <v>797</v>
+      </c>
+      <c r="G332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>798</v>
+      </c>
+      <c r="C333" t="s">
+        <v>799</v>
+      </c>
+      <c r="G333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>800</v>
+      </c>
+      <c r="C334" t="s">
+        <v>801</v>
+      </c>
+      <c r="G334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>802</v>
+      </c>
+      <c r="C335" t="s">
+        <v>803</v>
+      </c>
+      <c r="G335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>804</v>
+      </c>
+      <c r="C336" t="s">
+        <v>805</v>
+      </c>
+      <c r="G336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>806</v>
+      </c>
+      <c r="C337" t="s">
+        <v>807</v>
+      </c>
+      <c r="G337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>808</v>
+      </c>
+      <c r="C338" t="s">
+        <v>809</v>
+      </c>
+      <c r="G338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>810</v>
+      </c>
+      <c r="C339" t="s">
+        <v>811</v>
+      </c>
+      <c r="G339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>812</v>
+      </c>
+      <c r="C340" t="s">
+        <v>757</v>
+      </c>
+      <c r="G340">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="874">
   <si>
     <t>name</t>
   </si>
@@ -2458,6 +2458,187 @@
   </si>
   <si>
     <t>ME3 7QB</t>
+  </si>
+  <si>
+    <t>Ashby Fire and Rescue
+Station</t>
+  </si>
+  <si>
+    <t>200001828331</t>
+  </si>
+  <si>
+    <t>LE65 2GW</t>
+  </si>
+  <si>
+    <t>Billesdon Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032070758</t>
+  </si>
+  <si>
+    <t>LE7 9AA</t>
+  </si>
+  <si>
+    <t>Birstall Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>10023780048</t>
+  </si>
+  <si>
+    <t>LE4 3BS</t>
+  </si>
+  <si>
+    <t>Castle Donington Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>200003509173</t>
+  </si>
+  <si>
+    <t>DE74 2SA</t>
+  </si>
+  <si>
+    <t>Central Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>2465158437</t>
+  </si>
+  <si>
+    <t>LE1 7HB</t>
+  </si>
+  <si>
+    <t>Coalville Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032068210</t>
+  </si>
+  <si>
+    <t>LE67 3PU</t>
+  </si>
+  <si>
+    <t>Eastern Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>2465161345</t>
+  </si>
+  <si>
+    <t>LE5 0HL</t>
+  </si>
+  <si>
+    <t>Hinckley Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032037917</t>
+  </si>
+  <si>
+    <t>LE10 1LW</t>
+  </si>
+  <si>
+    <t>Kibworth Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032071673</t>
+  </si>
+  <si>
+    <t>LE8 0HQ</t>
+  </si>
+  <si>
+    <t>Loughborough Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032235250</t>
+  </si>
+  <si>
+    <t>LE11 3GE</t>
+  </si>
+  <si>
+    <t>Lutterworth Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032049447</t>
+  </si>
+  <si>
+    <t>LE17 4DZ</t>
+  </si>
+  <si>
+    <t>Market Bosworth Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100031996492</t>
+  </si>
+  <si>
+    <t>CV13 0LT</t>
+  </si>
+  <si>
+    <t>Market Harborough Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>200003736893</t>
+  </si>
+  <si>
+    <t>LE16 9QJ</t>
+  </si>
+  <si>
+    <t>Melton Mowbray Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032043369</t>
+  </si>
+  <si>
+    <t>LE13 0NP</t>
+  </si>
+  <si>
+    <t>Oakham Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032045554</t>
+  </si>
+  <si>
+    <t>LE15 6BQ</t>
+  </si>
+  <si>
+    <t>Shepshed Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>10008150839</t>
+  </si>
+  <si>
+    <t>LE12 9QE</t>
+  </si>
+  <si>
+    <t>Southern Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032231477</t>
+  </si>
+  <si>
+    <t>LE19 1WZ</t>
+  </si>
+  <si>
+    <t>Uppingham Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>100032046941</t>
+  </si>
+  <si>
+    <t>LE15 9RL</t>
+  </si>
+  <si>
+    <t>Western Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>2465160218</t>
+  </si>
+  <si>
+    <t>LE3 9PW</t>
+  </si>
+  <si>
+    <t>Wigston Fire and Rescue Station</t>
+  </si>
+  <si>
+    <t>10009232117</t>
+  </si>
+  <si>
+    <t>LE18 1PB</t>
   </si>
 </sst>
 </file>
@@ -2532,20 +2713,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2855,7 +3035,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B249" sqref="B249"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +3069,7 @@
       <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2900,7 +3080,7 @@
       <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>427</v>
       </c>
     </row>
@@ -2911,7 +3091,7 @@
       <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -2922,7 +3102,7 @@
       <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -2933,7 +3113,7 @@
       <c r="B6" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -2944,7 +3124,7 @@
       <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>448</v>
       </c>
     </row>
@@ -2955,7 +3135,7 @@
       <c r="B8" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -2966,7 +3146,7 @@
       <c r="B9" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>451</v>
       </c>
     </row>
@@ -2977,7 +3157,7 @@
       <c r="B10" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>454</v>
       </c>
     </row>
@@ -2988,7 +3168,7 @@
       <c r="B11" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2999,7 +3179,7 @@
       <c r="B12" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>458</v>
       </c>
     </row>
@@ -3010,7 +3190,7 @@
       <c r="B13" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>464</v>
       </c>
     </row>
@@ -3021,7 +3201,7 @@
       <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -3032,7 +3212,7 @@
       <c r="B15" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>442</v>
       </c>
     </row>
@@ -3043,7 +3223,7 @@
       <c r="B16" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>446</v>
       </c>
     </row>
@@ -3054,7 +3234,7 @@
       <c r="B17" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -3065,7 +3245,7 @@
       <c r="B18" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>459</v>
       </c>
     </row>
@@ -3076,7 +3256,7 @@
       <c r="B19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3087,7 +3267,7 @@
       <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>429</v>
       </c>
     </row>
@@ -3098,7 +3278,7 @@
       <c r="B21" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -3109,7 +3289,7 @@
       <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>433</v>
       </c>
     </row>
@@ -3120,7 +3300,7 @@
       <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3131,7 +3311,7 @@
       <c r="B24" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>441</v>
       </c>
     </row>
@@ -3142,7 +3322,7 @@
       <c r="B25" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>445</v>
       </c>
     </row>
@@ -3153,7 +3333,7 @@
       <c r="B26" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>449</v>
       </c>
     </row>
@@ -3164,7 +3344,7 @@
       <c r="B27" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>453</v>
       </c>
     </row>
@@ -3175,7 +3355,7 @@
       <c r="B28" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>455</v>
       </c>
     </row>
@@ -3186,7 +3366,7 @@
       <c r="B29" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>457</v>
       </c>
     </row>
@@ -3197,7 +3377,7 @@
       <c r="B30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3208,7 +3388,7 @@
       <c r="B31" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>466</v>
       </c>
     </row>
@@ -3219,7 +3399,7 @@
       <c r="B32" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3230,7 +3410,7 @@
       <c r="B33" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>438</v>
       </c>
     </row>
@@ -3241,7 +3421,7 @@
       <c r="B34" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3252,7 +3432,7 @@
       <c r="B35" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3263,7 +3443,7 @@
       <c r="B36" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="4" t="s">
         <v>430</v>
       </c>
     </row>
@@ -3274,7 +3454,7 @@
       <c r="B37" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>434</v>
       </c>
     </row>
@@ -3285,7 +3465,7 @@
       <c r="B38" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>431</v>
       </c>
     </row>
@@ -3296,7 +3476,7 @@
       <c r="B39" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>436</v>
       </c>
     </row>
@@ -3307,7 +3487,7 @@
       <c r="B40" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3318,7 +3498,7 @@
       <c r="B41" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3329,7 +3509,7 @@
       <c r="B42" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>447</v>
       </c>
     </row>
@@ -3340,7 +3520,7 @@
       <c r="B43" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>461</v>
       </c>
     </row>
@@ -3351,7 +3531,7 @@
       <c r="B44" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>463</v>
       </c>
     </row>
@@ -3362,7 +3542,7 @@
       <c r="B45" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>467</v>
       </c>
     </row>
@@ -3373,7 +3553,7 @@
       <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="4" t="s">
         <v>468</v>
       </c>
     </row>
@@ -3432,5802 +3612,6143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B46" sqref="B46"/>
-      <selection pane="bottomLeft" activeCell="B284" sqref="B284"/>
+      <selection pane="bottomLeft" activeCell="D360" sqref="D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="7">
         <v>35</v>
       </c>
-      <c r="R87" s="3"/>
+      <c r="R87" s="9"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="7">
         <v>35</v>
       </c>
-      <c r="R88" s="3"/>
+      <c r="R88" s="9"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="7">
         <v>35</v>
       </c>
-      <c r="R89" s="3"/>
+      <c r="R89" s="9"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="7">
         <v>35</v>
       </c>
-      <c r="R90" s="3"/>
+      <c r="R90" s="9"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="7">
         <v>35</v>
       </c>
-      <c r="R91" s="3"/>
+      <c r="R91" s="9"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="7">
         <v>35</v>
       </c>
-      <c r="R92" s="3"/>
+      <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="7">
         <v>35</v>
       </c>
-      <c r="R93" s="3"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="7">
         <v>35</v>
       </c>
-      <c r="R94" s="3"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="7">
         <v>35</v>
       </c>
-      <c r="R95" s="3"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="7">
         <v>35</v>
       </c>
-      <c r="R96" s="3"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="7">
         <v>35</v>
       </c>
-      <c r="R97" s="3"/>
+      <c r="R97" s="9"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="7">
         <v>35</v>
       </c>
-      <c r="R98" s="3"/>
+      <c r="R98" s="9"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="7">
         <v>35</v>
       </c>
-      <c r="R99" s="3"/>
+      <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="7">
         <v>35</v>
       </c>
-      <c r="R100" s="3"/>
+      <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="7">
         <v>35</v>
       </c>
-      <c r="R101" s="3"/>
+      <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="7">
         <v>35</v>
       </c>
-      <c r="R102" s="3"/>
+      <c r="R102" s="9"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="7">
         <v>35</v>
       </c>
-      <c r="R103" s="3"/>
+      <c r="R103" s="9"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="7">
         <v>35</v>
       </c>
-      <c r="R104" s="3"/>
+      <c r="R104" s="9"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="7">
         <v>35</v>
       </c>
-      <c r="R105" s="3"/>
+      <c r="R105" s="9"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="7">
         <v>35</v>
       </c>
-      <c r="R106" s="3"/>
+      <c r="R106" s="9"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="7">
         <v>35</v>
       </c>
-      <c r="R107" s="3"/>
+      <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109">
+      <c r="E109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111">
+      <c r="E111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113">
+      <c r="E113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117">
+      <c r="E117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118">
+      <c r="E118" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119">
+      <c r="E119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120">
+      <c r="E120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121">
+      <c r="E121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122">
+      <c r="E122" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="7">
         <v>54960</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="7">
         <v>54090</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="7">
         <v>54290</v>
       </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174">
+      <c r="E174" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="7">
         <v>54170</v>
       </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175">
+      <c r="E175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="7">
         <v>54260</v>
       </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176">
+      <c r="E176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="7">
         <v>54200</v>
       </c>
-      <c r="E177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177">
+      <c r="E177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="7">
         <v>54150</v>
       </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178">
+      <c r="E178" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="7">
         <v>54030</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="7">
         <v>54130</v>
       </c>
-      <c r="E180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180">
+      <c r="E180" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="7">
         <v>54050</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="7">
         <v>54240</v>
       </c>
-      <c r="E182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182">
+      <c r="E182" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="7">
         <v>54210</v>
       </c>
-      <c r="E183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183">
+      <c r="E183" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="7">
         <v>54250</v>
       </c>
-      <c r="E184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184">
+      <c r="E184" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="7">
         <v>54000</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="7">
         <v>54190</v>
       </c>
-      <c r="E186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186">
+      <c r="E186" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="7">
         <v>54300</v>
       </c>
-      <c r="E187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187">
+      <c r="E187" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="7">
         <v>54010</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="7">
         <v>54160</v>
       </c>
-      <c r="E189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189">
+      <c r="E189" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="7">
         <v>54270</v>
       </c>
-      <c r="E190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190">
+      <c r="E190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="7">
         <v>54100</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="7">
         <v>54070</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="7">
         <v>54110</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="7">
         <v>54040</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="7">
         <v>54310</v>
       </c>
-      <c r="E195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195">
+      <c r="E195" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="7">
         <v>54020</v>
       </c>
-      <c r="E196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196">
+      <c r="E196" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="7">
         <v>54080</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="7">
         <v>54280</v>
       </c>
-      <c r="E198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198">
+      <c r="E198" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="7">
         <v>54220</v>
       </c>
-      <c r="E199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199">
+      <c r="E199" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="7">
         <v>54231</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="7">
         <v>54120</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="7">
         <v>54140</v>
       </c>
-      <c r="E202" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202">
+      <c r="E202" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="7">
         <v>54180</v>
       </c>
-      <c r="E203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203">
+      <c r="E203" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="7">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="7">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="7">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="7">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="7">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="7">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="7">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="7">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="7">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="7">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="7">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="7">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="7">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="7">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="7">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="7">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="7">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="7">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="7">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="7">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="7">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="7">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="7">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="7">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="7">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="7">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="7">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="7">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="7">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="7">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="7">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="7">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="7">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="7">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="7">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="7">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="7">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="7">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="7">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="7">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="7">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="7">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="7">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="7">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="7">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="7">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="7">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="7">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="7">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="7">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="7">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="7">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="7">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="7">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="7">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="7">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="7">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="7">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="7">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="7">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="7">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="7">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="7">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="7">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="7">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="7">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="7">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="7">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="7">
         <v>293</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="7">
         <v>294</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="7">
         <v>295</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="7">
         <v>296</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="7">
         <v>297</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="7">
         <v>298</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="7">
         <v>299</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="7">
         <v>300</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="7">
         <v>301</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="7">
         <v>302</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="7">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="7">
         <v>304</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="7">
         <v>305</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="7">
         <v>306</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="7">
         <v>307</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="7">
         <v>308</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="7">
         <v>309</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="7">
         <v>310</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="7">
         <v>311</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="7">
         <v>312</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="7">
         <v>313</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="7">
         <v>314</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="7">
         <v>315</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="7">
         <v>316</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="7">
         <v>317</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="7">
         <v>318</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="7">
         <v>319</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="7">
         <v>320</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="7">
         <v>321</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="7">
         <v>322</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="7">
         <v>323</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="7">
         <v>324</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="7">
         <v>325</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="7">
         <v>326</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="7">
         <v>327</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="7">
         <v>328</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="7">
         <v>329</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="7">
         <v>330</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="7">
         <v>331</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="7">
         <v>332</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="7">
         <v>333</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="7">
         <v>334</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="7">
         <v>335</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="7">
         <v>336</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="7">
         <v>337</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="7">
         <v>338</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="7">
         <v>339</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="7">
+        <v>340</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C341" t="s">
+        <v>816</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="G341" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="7">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>817</v>
+      </c>
+      <c r="C342" t="s">
+        <v>819</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="G342" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="7">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>820</v>
+      </c>
+      <c r="C343" t="s">
+        <v>822</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="G343" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="7">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>823</v>
+      </c>
+      <c r="C344" t="s">
+        <v>825</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="G344" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="7">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>826</v>
+      </c>
+      <c r="C345" t="s">
+        <v>828</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="G345" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="7">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>829</v>
+      </c>
+      <c r="C346" t="s">
+        <v>831</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="G346" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="7">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>832</v>
+      </c>
+      <c r="C347" t="s">
+        <v>834</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="G347" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="7">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>835</v>
+      </c>
+      <c r="C348" t="s">
+        <v>837</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G348" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="7">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>838</v>
+      </c>
+      <c r="C349" t="s">
+        <v>840</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="G349" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="7">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>841</v>
+      </c>
+      <c r="C350" t="s">
+        <v>843</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="G350" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="7">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>844</v>
+      </c>
+      <c r="C351" t="s">
+        <v>846</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="G351" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="7">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>847</v>
+      </c>
+      <c r="C352" t="s">
+        <v>849</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G352" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="7">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>850</v>
+      </c>
+      <c r="C353" t="s">
+        <v>852</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G353" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="7">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>853</v>
+      </c>
+      <c r="C354" t="s">
+        <v>855</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="G354" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="7">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>856</v>
+      </c>
+      <c r="C355" t="s">
+        <v>858</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="G355" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="7">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>859</v>
+      </c>
+      <c r="C356" t="s">
+        <v>861</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="G356" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="7">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>862</v>
+      </c>
+      <c r="C357" t="s">
+        <v>864</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="G357" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="7">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>865</v>
+      </c>
+      <c r="C358" t="s">
+        <v>867</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="G358" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="7">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>868</v>
+      </c>
+      <c r="C359" t="s">
+        <v>870</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="G359" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="7">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>871</v>
+      </c>
+      <c r="C360" t="s">
+        <v>873</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="G360" s="7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="951">
   <si>
     <t>name</t>
   </si>
@@ -2639,6 +2639,237 @@
   </si>
   <si>
     <t>LE18 1PB</t>
+  </si>
+  <si>
+    <t>Mablethorpe Fire Station</t>
+  </si>
+  <si>
+    <t>LN12 2AD</t>
+  </si>
+  <si>
+    <t>Gainsborough Fire Station</t>
+  </si>
+  <si>
+    <t>DN21 2SE</t>
+  </si>
+  <si>
+    <t>Caistor Fire Station</t>
+  </si>
+  <si>
+    <t>LN7 6RG</t>
+  </si>
+  <si>
+    <t>Market Rasen Fire Station</t>
+  </si>
+  <si>
+    <t>LN8 3AW</t>
+  </si>
+  <si>
+    <t>Binbrook Fire Station</t>
+  </si>
+  <si>
+    <t>LN8 6BH</t>
+  </si>
+  <si>
+    <t>North Somercotes Fire Station</t>
+  </si>
+  <si>
+    <t>LN11 7QS.</t>
+  </si>
+  <si>
+    <t>Louth Fire Station</t>
+  </si>
+  <si>
+    <t>LN11 7AS</t>
+  </si>
+  <si>
+    <t>Saxilby Fire Station</t>
+  </si>
+  <si>
+    <t>LN1 2LN</t>
+  </si>
+  <si>
+    <t>North Lincoln Fire Station</t>
+  </si>
+  <si>
+    <t>LN2 4DH</t>
+  </si>
+  <si>
+    <t>South Lincoln Fire Station</t>
+  </si>
+  <si>
+    <t>LN5 8EL.</t>
+  </si>
+  <si>
+    <t>North Hykeham Fire Station</t>
+  </si>
+  <si>
+    <t>LN6 9PA</t>
+  </si>
+  <si>
+    <t>Waddington Fire Station</t>
+  </si>
+  <si>
+    <t>LN5 9NX</t>
+  </si>
+  <si>
+    <t>Bardney</t>
+  </si>
+  <si>
+    <t>LN3 5TF</t>
+  </si>
+  <si>
+    <t>Billinghay Fire Station</t>
+  </si>
+  <si>
+    <t>LN4 4ES</t>
+  </si>
+  <si>
+    <t>Metheringham Fire Station</t>
+  </si>
+  <si>
+    <t>LN4 3AA</t>
+  </si>
+  <si>
+    <t>Wragby Fire Station</t>
+  </si>
+  <si>
+    <t>LN8 5AB</t>
+  </si>
+  <si>
+    <t>Alford Fire Station</t>
+  </si>
+  <si>
+    <t>LN13 9AT</t>
+  </si>
+  <si>
+    <t>Boston Fire Station</t>
+  </si>
+  <si>
+    <t>PE21 9ES</t>
+  </si>
+  <si>
+    <t>Horncastle Fire Station</t>
+  </si>
+  <si>
+    <t>LN9 6AG</t>
+  </si>
+  <si>
+    <t>PE25 2RN</t>
+  </si>
+  <si>
+    <t>Skegness Fire Station</t>
+  </si>
+  <si>
+    <t>Kirton Fire Station</t>
+  </si>
+  <si>
+    <t>PE20 1EF</t>
+  </si>
+  <si>
+    <t>Leverton Fire Station</t>
+  </si>
+  <si>
+    <t>PE22 0BB</t>
+  </si>
+  <si>
+    <t>Spilsby Fire Station</t>
+  </si>
+  <si>
+    <t>PE23 5HD</t>
+  </si>
+  <si>
+    <t>Wainfleet Fire Station</t>
+  </si>
+  <si>
+    <t>PE24 4DD</t>
+  </si>
+  <si>
+    <t>Woodhall Spa Fire Station</t>
+  </si>
+  <si>
+    <t>LN10 6RL</t>
+  </si>
+  <si>
+    <t>Billingborough Fire Station</t>
+  </si>
+  <si>
+    <t>NG34 0QD</t>
+  </si>
+  <si>
+    <t>Bourne Fire Station</t>
+  </si>
+  <si>
+    <t>PE10 9LY</t>
+  </si>
+  <si>
+    <t>Brant Broughton Fire Station</t>
+  </si>
+  <si>
+    <t>LN5 0QX</t>
+  </si>
+  <si>
+    <t>Corby Glen Fire Station</t>
+  </si>
+  <si>
+    <t>NG33 4NS</t>
+  </si>
+  <si>
+    <t>Crowland Fire Station</t>
+  </si>
+  <si>
+    <t>PE6 0LF</t>
+  </si>
+  <si>
+    <t>Donington Fire Station</t>
+  </si>
+  <si>
+    <t>PE11 4TA</t>
+  </si>
+  <si>
+    <t>NG31 7SG</t>
+  </si>
+  <si>
+    <t>Grantham Fire Station</t>
+  </si>
+  <si>
+    <t>Holbeach Fire Station</t>
+  </si>
+  <si>
+    <t>PE12 7HG</t>
+  </si>
+  <si>
+    <t>Long Sutton Fire Station</t>
+  </si>
+  <si>
+    <t>PE12 9BP</t>
+  </si>
+  <si>
+    <t>Market Deeping Fire Station</t>
+  </si>
+  <si>
+    <t>PE6 8ED</t>
+  </si>
+  <si>
+    <t>Sleaford Fire Station</t>
+  </si>
+  <si>
+    <t>NG34 7DF</t>
+  </si>
+  <si>
+    <t>NG34 7EQ</t>
+  </si>
+  <si>
+    <t>Spalding Fire Station</t>
+  </si>
+  <si>
+    <t>PE11 2BH</t>
+  </si>
+  <si>
+    <t>Stamford Fire Station</t>
+  </si>
+  <si>
+    <t>PE9 1AP</t>
   </si>
 </sst>
 </file>
@@ -3035,7 +3266,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B249" sqref="B249"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,12 +3843,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B46" sqref="B46"/>
-      <selection pane="bottomLeft" activeCell="D360" sqref="D360"/>
+      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9751,7 +9982,556 @@
         <v>7</v>
       </c>
     </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="7">
+        <v>360</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="E361" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="7">
+        <v>361</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E362" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="7">
+        <v>362</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="E363" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="7">
+        <v>363</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="7">
+        <v>364</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="7">
+        <v>365</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="7">
+        <v>366</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="7">
+        <v>367</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="E368" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="7">
+        <v>368</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E369" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="7">
+        <v>369</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="E370" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="7">
+        <v>370</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="E371" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="7">
+        <v>371</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="E372" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>372</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="E373" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="7">
+        <v>373</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E374" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>374</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="E375" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="7">
+        <v>375</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="E376" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>376</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="7">
+        <v>377</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="E378" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>378</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="E379" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="7">
+        <v>379</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="E380" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>380</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="E381" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="7">
+        <v>381</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="E382" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="7">
+        <v>382</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="E383" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="7">
+        <v>383</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="E384" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="7">
+        <v>384</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="E385" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="7">
+        <v>385</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E386" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="7">
+        <v>386</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="E387" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="7">
+        <v>387</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="7">
+        <v>388</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="7">
+        <v>389</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="E390" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="7">
+        <v>390</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E391" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="7">
+        <v>391</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="7">
+        <v>392</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="E393" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="7">
+        <v>393</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="E394" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="7">
+        <v>394</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E395" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="7">
+        <v>395</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="7">
+        <v>396</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="E397" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="7">
+        <v>397</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="E398" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="7">
+        <v>398</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="E399" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D400" s="7"/>
+    </row>
   </sheetData>
+  <sortState ref="B361:E399">
+    <sortCondition ref="B362"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1034">
   <si>
     <t>name</t>
   </si>
@@ -2870,6 +2870,255 @@
   </si>
   <si>
     <t>PE9 1AP</t>
+  </si>
+  <si>
+    <t>Harleston</t>
+  </si>
+  <si>
+    <t>Acle</t>
+  </si>
+  <si>
+    <t>Aylsham</t>
+  </si>
+  <si>
+    <t>Loddon</t>
+  </si>
+  <si>
+    <t>Cromer</t>
+  </si>
+  <si>
+    <t>Long Stratton</t>
+  </si>
+  <si>
+    <t>Gorleston</t>
+  </si>
+  <si>
+    <t>Great Yarmouth</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Reepham</t>
+  </si>
+  <si>
+    <t>Martham</t>
+  </si>
+  <si>
+    <t>Mundesley</t>
+  </si>
+  <si>
+    <t>North Walsham</t>
+  </si>
+  <si>
+    <t>Sheringham</t>
+  </si>
+  <si>
+    <t>Stalham</t>
+  </si>
+  <si>
+    <t>Wroxham</t>
+  </si>
+  <si>
+    <t>Attleborough</t>
+  </si>
+  <si>
+    <t>Fakenham</t>
+  </si>
+  <si>
+    <t>Dereham</t>
+  </si>
+  <si>
+    <t>Heacham</t>
+  </si>
+  <si>
+    <t>Diss</t>
+  </si>
+  <si>
+    <t>Hunstanton</t>
+  </si>
+  <si>
+    <t>Downham Market</t>
+  </si>
+  <si>
+    <t>Kings Lynn North</t>
+  </si>
+  <si>
+    <t>East Harling</t>
+  </si>
+  <si>
+    <t>Kings Lynn South</t>
+  </si>
+  <si>
+    <t>Hingham</t>
+  </si>
+  <si>
+    <t>Massingham</t>
+  </si>
+  <si>
+    <t>Methwold</t>
+  </si>
+  <si>
+    <t>Outwell</t>
+  </si>
+  <si>
+    <t>Swaffham</t>
+  </si>
+  <si>
+    <t>Sandringham</t>
+  </si>
+  <si>
+    <t>Thetford</t>
+  </si>
+  <si>
+    <t>Terrington</t>
+  </si>
+  <si>
+    <t>Watton</t>
+  </si>
+  <si>
+    <t>Wymondham</t>
+  </si>
+  <si>
+    <t>Sprowston</t>
+  </si>
+  <si>
+    <t>North Earlham</t>
+  </si>
+  <si>
+    <t>Diamond Jubilee Station, Carrow</t>
+  </si>
+  <si>
+    <t>IP20 9AN</t>
+  </si>
+  <si>
+    <t>NR14 6ET</t>
+  </si>
+  <si>
+    <t>NR15 2XH</t>
+  </si>
+  <si>
+    <t>NR5 8BQ</t>
+  </si>
+  <si>
+    <t>wholetime &amp; retained</t>
+  </si>
+  <si>
+    <t>NR1 2EE</t>
+  </si>
+  <si>
+    <t>NR10 4JP</t>
+  </si>
+  <si>
+    <t>NR7 8TA</t>
+  </si>
+  <si>
+    <t>NR13 3QN</t>
+  </si>
+  <si>
+    <t>NR11 6BX</t>
+  </si>
+  <si>
+    <t>NR27 9AJ</t>
+  </si>
+  <si>
+    <t>NR31 0PJ</t>
+  </si>
+  <si>
+    <t>NR30 2RP</t>
+  </si>
+  <si>
+    <t>NR25 6SH</t>
+  </si>
+  <si>
+    <t>NR11 8JU</t>
+  </si>
+  <si>
+    <t>NR28 9DE</t>
+  </si>
+  <si>
+    <t>NR29 4RU</t>
+  </si>
+  <si>
+    <t>NR26 8RS</t>
+  </si>
+  <si>
+    <t>NR12 9BU</t>
+  </si>
+  <si>
+    <t>NR12 8SB</t>
+  </si>
+  <si>
+    <t>NR21 8BB</t>
+  </si>
+  <si>
+    <t>PE31 7EX</t>
+  </si>
+  <si>
+    <t>PE36 5HP</t>
+  </si>
+  <si>
+    <t>PE30 2HY</t>
+  </si>
+  <si>
+    <t>PE30 5DD</t>
+  </si>
+  <si>
+    <t>PE32 2JJ</t>
+  </si>
+  <si>
+    <t>PE14 8RL</t>
+  </si>
+  <si>
+    <t>PE31 6LP</t>
+  </si>
+  <si>
+    <t>PE34 4LL</t>
+  </si>
+  <si>
+    <t>NR23 1HW</t>
+  </si>
+  <si>
+    <t>PE14 7EU</t>
+  </si>
+  <si>
+    <t>West Walton</t>
+  </si>
+  <si>
+    <t>NR17 2AP</t>
+  </si>
+  <si>
+    <t>NR20 3AS</t>
+  </si>
+  <si>
+    <t>IP22 4AS</t>
+  </si>
+  <si>
+    <t>PE38 9BD</t>
+  </si>
+  <si>
+    <t>NR16 2NB</t>
+  </si>
+  <si>
+    <t>NR9 4LS</t>
+  </si>
+  <si>
+    <t>IP26 4NT</t>
+  </si>
+  <si>
+    <t>PE37 7NG</t>
+  </si>
+  <si>
+    <t>IP24 2HT</t>
+  </si>
+  <si>
+    <t>day staffing &amp; retained</t>
+  </si>
+  <si>
+    <t>IP25 6BX</t>
+  </si>
+  <si>
+    <t>NR18 9AW</t>
   </si>
 </sst>
 </file>
@@ -3264,9 +3513,9 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B249" sqref="B249"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,12 +4092,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R400"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B46" sqref="B46"/>
-      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
+      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9995,6 +10244,9 @@
       <c r="E361" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G361" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
@@ -10009,6 +10261,9 @@
       <c r="E362" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G362" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
@@ -10023,6 +10278,9 @@
       <c r="E363" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G363" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
@@ -10037,6 +10295,9 @@
       <c r="E364" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G364" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
@@ -10051,6 +10312,9 @@
       <c r="E365" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G365" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
@@ -10065,6 +10329,9 @@
       <c r="E366" s="7" t="s">
         <v>685</v>
       </c>
+      <c r="G366" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
@@ -10079,6 +10346,9 @@
       <c r="E367" s="7" t="s">
         <v>547</v>
       </c>
+      <c r="G367" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
@@ -10093,8 +10363,11 @@
       <c r="E368" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G368" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -10107,8 +10380,11 @@
       <c r="E369" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G369" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>369</v>
       </c>
@@ -10121,8 +10397,11 @@
       <c r="E370" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G370" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>370</v>
       </c>
@@ -10135,8 +10414,11 @@
       <c r="E371" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G371" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>371</v>
       </c>
@@ -10149,8 +10431,11 @@
       <c r="E372" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G372" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>372</v>
       </c>
@@ -10163,8 +10448,11 @@
       <c r="E373" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G373" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>373</v>
       </c>
@@ -10177,8 +10465,11 @@
       <c r="E374" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G374" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -10191,8 +10482,11 @@
       <c r="E375" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G375" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>375</v>
       </c>
@@ -10205,8 +10499,11 @@
       <c r="E376" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G376" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>376</v>
       </c>
@@ -10219,8 +10516,11 @@
       <c r="E377" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G377" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>377</v>
       </c>
@@ -10233,8 +10533,11 @@
       <c r="E378" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G378" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>378</v>
       </c>
@@ -10247,8 +10550,11 @@
       <c r="E379" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G379" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>379</v>
       </c>
@@ -10261,8 +10567,11 @@
       <c r="E380" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G380" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>380</v>
       </c>
@@ -10275,8 +10584,11 @@
       <c r="E381" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G381" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -10289,8 +10601,11 @@
       <c r="E382" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G382" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>382</v>
       </c>
@@ -10303,8 +10618,11 @@
       <c r="E383" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G383" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>383</v>
       </c>
@@ -10317,8 +10635,11 @@
       <c r="E384" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G384" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>384</v>
       </c>
@@ -10331,8 +10652,11 @@
       <c r="E385" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G385" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>385</v>
       </c>
@@ -10345,8 +10669,11 @@
       <c r="E386" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G386" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>386</v>
       </c>
@@ -10359,8 +10686,11 @@
       <c r="E387" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G387" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -10373,8 +10703,11 @@
       <c r="E388" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G388" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>388</v>
       </c>
@@ -10384,8 +10717,11 @@
       <c r="C389" s="7" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G389" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>389</v>
       </c>
@@ -10398,8 +10734,11 @@
       <c r="E390" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G390" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>390</v>
       </c>
@@ -10412,8 +10751,11 @@
       <c r="E391" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G391" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -10426,8 +10768,11 @@
       <c r="E392" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G392" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>392</v>
       </c>
@@ -10440,8 +10785,11 @@
       <c r="E393" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G393" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>393</v>
       </c>
@@ -10454,8 +10802,11 @@
       <c r="E394" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G394" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>394</v>
       </c>
@@ -10468,8 +10819,11 @@
       <c r="E395" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G395" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>395</v>
       </c>
@@ -10482,8 +10836,11 @@
       <c r="E396" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G396" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>396</v>
       </c>
@@ -10496,8 +10853,11 @@
       <c r="E397" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G397" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -10510,8 +10870,11 @@
       <c r="E398" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G398" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>398</v>
       </c>
@@ -10524,9 +10887,706 @@
       <c r="E399" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D400" s="7"/>
+      <c r="G399" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="7">
+        <v>399</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="E400" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G400" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="7">
+        <v>400</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="E401" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G401" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="7">
+        <v>401</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="E402" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G402" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="7">
+        <v>402</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="E403" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="G403" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="7">
+        <v>403</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="E404" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G404" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="7">
+        <v>404</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="E405" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G405" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="7">
+        <v>405</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="E406" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G406" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="7">
+        <v>406</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E407" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G407" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="7">
+        <v>407</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E408" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G408" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="7">
+        <v>408</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E409" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="7">
+        <v>409</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E410" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="7">
+        <v>410</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E411" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="7">
+        <v>411</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="7">
+        <v>412</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G413" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="7">
+        <v>413</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E414" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G414" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="7">
+        <v>414</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E415" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G415" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="7">
+        <v>415</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E416" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="7">
+        <v>416</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E417" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="7">
+        <v>417</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="E418" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G418" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="7">
+        <v>418</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="E419" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G419" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="7">
+        <v>419</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E420" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G420" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="7">
+        <v>420</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E421" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G421" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="7">
+        <v>421</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="G422" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="7">
+        <v>422</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E423" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G423" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="7">
+        <v>423</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E424" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G424" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="7">
+        <v>424</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G425" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="7">
+        <v>425</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G426" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="7">
+        <v>426</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E427" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G427" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="7">
+        <v>427</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E428" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G428" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="7">
+        <v>428</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E429" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G429" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="7">
+        <v>429</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E430" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="7">
+        <v>430</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E431" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G431" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="7">
+        <v>431</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G432" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="7">
+        <v>432</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E433" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G433" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="7">
+        <v>433</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G434" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="7">
+        <v>434</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E435" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="7">
+        <v>435</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E436" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G436" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="7">
+        <v>436</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E437" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G437" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="7">
+        <v>437</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E438" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="7">
+        <v>438</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E439" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="7">
+        <v>439</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" s="7">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B361:E399">

--- a/lists/fire-data.xlsx
+++ b/lists/fire-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1080">
   <si>
     <t>name</t>
   </si>
@@ -3119,6 +3119,144 @@
   </si>
   <si>
     <t>NR18 9AW</t>
+  </si>
+  <si>
+    <t>Brackley</t>
+  </si>
+  <si>
+    <t>Brixworth</t>
+  </si>
+  <si>
+    <t>Burton Latimer</t>
+  </si>
+  <si>
+    <t>Corby</t>
+  </si>
+  <si>
+    <t>Daventry</t>
+  </si>
+  <si>
+    <t>Desborough</t>
+  </si>
+  <si>
+    <t>Earls Barton</t>
+  </si>
+  <si>
+    <t>Guilsborough</t>
+  </si>
+  <si>
+    <t>Irthlingborough</t>
+  </si>
+  <si>
+    <t>Kettering</t>
+  </si>
+  <si>
+    <t>Long Buckby</t>
+  </si>
+  <si>
+    <t>Mereway</t>
+  </si>
+  <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Mounts</t>
+  </si>
+  <si>
+    <t>Oundle</t>
+  </si>
+  <si>
+    <t>Raunds</t>
+  </si>
+  <si>
+    <t>Rothwell</t>
+  </si>
+  <si>
+    <t>Rushden</t>
+  </si>
+  <si>
+    <t>Thrapston</t>
+  </si>
+  <si>
+    <t>Towcester</t>
+  </si>
+  <si>
+    <t>Wellingborough</t>
+  </si>
+  <si>
+    <t>Woodford Halse</t>
+  </si>
+  <si>
+    <t>NN17 5DT</t>
+  </si>
+  <si>
+    <t>PE8 4JA</t>
+  </si>
+  <si>
+    <t>NN14 2RD</t>
+  </si>
+  <si>
+    <t>NN14 6ES</t>
+  </si>
+  <si>
+    <t>NN6 8QR</t>
+  </si>
+  <si>
+    <t>NN6 7QB</t>
+  </si>
+  <si>
+    <t>NN11 4HN</t>
+  </si>
+  <si>
+    <t>variable &amp; retained</t>
+  </si>
+  <si>
+    <t>NN11 3QR</t>
+  </si>
+  <si>
+    <t>NN6 9BS</t>
+  </si>
+  <si>
+    <t>NN15 6BH</t>
+  </si>
+  <si>
+    <t>NN14 4JJ</t>
+  </si>
+  <si>
+    <t>NN9 6EH</t>
+  </si>
+  <si>
+    <t>NN9 5TU</t>
+  </si>
+  <si>
+    <t>NN8 1LT</t>
+  </si>
+  <si>
+    <t>NN10 6UL</t>
+  </si>
+  <si>
+    <t>retained &amp; variable</t>
+  </si>
+  <si>
+    <t>NN3 6XJ</t>
+  </si>
+  <si>
+    <t>NN6 0JG</t>
+  </si>
+  <si>
+    <t>NN1 3DN</t>
+  </si>
+  <si>
+    <t>NN4 8BW</t>
+  </si>
+  <si>
+    <t>NN12 6DE</t>
+  </si>
+  <si>
+    <t>NN13 7GA</t>
+  </si>
+  <si>
+    <t>NN15 5RF</t>
   </si>
 </sst>
 </file>
@@ -3513,9 +3651,9 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B249" sqref="B249"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,12 +4230,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B46" sqref="B46"/>
-      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
+      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11586,6 +11724,381 @@
       </c>
       <c r="G440" s="7">
         <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="7">
+        <v>440</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G441" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="7">
+        <v>441</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E442" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G442" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="7">
+        <v>442</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E443" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G443" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="7">
+        <v>443</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E444" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G444" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="7">
+        <v>444</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G445" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="7">
+        <v>445</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E446" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G446" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="7">
+        <v>446</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E447" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G447" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="7">
+        <v>447</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E448" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G448" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="7">
+        <v>448</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E449" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G449" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="7">
+        <v>449</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E450" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="G450" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="7">
+        <v>450</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E451" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G451" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="7">
+        <v>451</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E452" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G452" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="7">
+        <v>452</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E453" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="G453" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="7">
+        <v>453</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E454" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G454" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="7">
+        <v>454</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E455" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G455" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="7">
+        <v>455</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E456" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G456" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="7">
+        <v>456</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E457" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G457" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="7">
+        <v>457</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E458" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G458" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="7">
+        <v>458</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E459" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G459" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="7">
+        <v>459</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E460" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G460" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="7">
+        <v>460</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D461" s="7"/>
+      <c r="E461" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="G461" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="7">
+        <v>461</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E462" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G462" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
